--- a/Grades.xlsx
+++ b/Grades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Norco\Fall-2018---CIS7---Discrete-Structures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ECCA71B5-A35C-41F1-BC73-99B43834016E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CB9270-1848-41C6-9CB5-5662D5782532}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="57600" windowHeight="20025" xr2:uid="{472D7104-30D2-47F3-BBFA-22D01E3ADDAD}"/>
   </bookViews>
@@ -569,7 +569,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,7 +649,7 @@
       </c>
       <c r="P3" s="4">
         <f t="shared" ref="P3:P34" si="1">O3/$O$34</f>
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -659,13 +659,16 @@
       <c r="B4">
         <v>20</v>
       </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
       <c r="O4">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -711,13 +714,16 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -737,26 +743,35 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
       <c r="O10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
       <c r="O11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -792,26 +807,35 @@
       <c r="B14">
         <v>20</v>
       </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
       <c r="O14">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="P14" s="4">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
       <c r="O15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -909,13 +933,16 @@
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
       <c r="O23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P23" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1052,7 +1079,7 @@
         <v>20</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1083,7 +1110,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="P34" s="4">
         <f t="shared" si="1"/>

--- a/Grades.xlsx
+++ b/Grades.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Norco\Fall-2018---CIS7---Discrete-Structures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fall-2018---CIS7---Discrete-Structures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CB9270-1848-41C6-9CB5-5662D5782532}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="57600" windowHeight="20025" xr2:uid="{472D7104-30D2-47F3-BBFA-22D01E3ADDAD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="57600" windowHeight="20025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>Anzo, Alan F.</t>
   </si>
@@ -163,12 +162,15 @@
   </si>
   <si>
     <t>Carter, Rebecca</t>
+  </si>
+  <si>
+    <t>Ramirez, Brandon A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -565,11 +567,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09E5562-4EF5-4C7E-9AAD-DB9BAC746BB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,13 +645,16 @@
       <c r="B3">
         <v>20</v>
       </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
       <c r="O3">
         <f t="shared" ref="O3:O34" si="0">SUM(B3:N3)</f>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" ref="P3:P34" si="1">O3/$O$34</f>
-        <v>0.33333333333333331</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -701,13 +706,19 @@
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -936,26 +947,35 @@
       <c r="B23">
         <v>20</v>
       </c>
+      <c r="C23">
+        <v>20</v>
+      </c>
       <c r="O23">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="P23" s="4">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>15</v>
+      </c>
       <c r="O24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="P24" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1037,7 +1057,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="O31">
@@ -1049,21 +1069,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
       <c r="O32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P32" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33">
         <v>20</v>
       </c>
       <c r="P33" s="4"/>

--- a/Grades.xlsx
+++ b/Grades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fall-2018---CIS7---Discrete-Structures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncc\Fall-2018---CIS7---Discrete-Structures\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,13 +648,25 @@
       <c r="C3">
         <v>15</v>
       </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
       <c r="O3">
         <f t="shared" ref="O3:O34" si="0">SUM(B3:N3)</f>
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" ref="P3:P34" si="1">O3/$O$34</f>
-        <v>0.58333333333333337</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -673,33 +685,54 @@
       </c>
       <c r="P4" s="4">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>20</v>
+      </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P6" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -712,13 +745,16 @@
       <c r="C7">
         <v>20</v>
       </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -728,26 +764,47 @@
       <c r="B8">
         <v>10</v>
       </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>16</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
       <c r="O8">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="P8" s="4">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>25</v>
+      </c>
       <c r="O9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="P9" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -757,13 +814,19 @@
       <c r="C10">
         <v>20</v>
       </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
       <c r="O10">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="P10" s="4">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -776,13 +839,22 @@
       <c r="C11">
         <v>20</v>
       </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
       <c r="O11">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -802,13 +874,19 @@
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D13">
+        <v>25</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
       <c r="O13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="P13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -821,9 +899,15 @@
       <c r="C14">
         <v>20</v>
       </c>
+      <c r="F14">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
       <c r="O14">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="P14" s="4">
         <f t="shared" si="1"/>
@@ -838,28 +922,31 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="O15">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="P15" s="4">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.29166666666666669</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
       <c r="O16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P16" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -918,13 +1005,19 @@
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>15</v>
+      </c>
       <c r="O21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -956,7 +1049,7 @@
       </c>
       <c r="P23" s="4">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -975,7 +1068,7 @@
       </c>
       <c r="P24" s="4">
         <f t="shared" si="1"/>
-        <v>0.41666666666666669</v>
+        <v>0.20833333333333334</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1082,7 +1175,7 @@
       </c>
       <c r="P32" s="4">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1095,6 +1188,9 @@
       <c r="C33">
         <v>20</v>
       </c>
+      <c r="D33">
+        <v>20</v>
+      </c>
       <c r="P33" s="4"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -1114,13 +1210,13 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1139,7 +1235,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="P34" s="4">
         <f t="shared" si="1"/>

--- a/Grades.xlsx
+++ b/Grades.xlsx
@@ -571,7 +571,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,9 +651,6 @@
       <c r="D3">
         <v>20</v>
       </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
       <c r="F3">
         <v>20</v>
       </c>
@@ -662,11 +659,11 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O34" si="0">SUM(B3:N3)</f>
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="P3" s="4">
         <f t="shared" ref="P3:P34" si="1">O3/$O$34</f>
-        <v>0.95833333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Grades.xlsx
+++ b/Grades.xlsx
@@ -571,7 +571,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,7 +837,7 @@
         <v>20</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -847,11 +847,11 @@
       </c>
       <c r="O11">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Grades.xlsx
+++ b/Grades.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncc\Fall-2018---CIS7---Discrete-Structures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="57600" windowHeight="20025"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8130"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -571,7 +571,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,13 +629,22 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
       <c r="O2">
         <f>SUM(B2:N2)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="P2" s="4">
         <f>O2/$O$34</f>
-        <v>0</v>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -657,13 +666,16 @@
       <c r="G3">
         <v>20</v>
       </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
       <c r="O3">
         <f t="shared" ref="O3:O34" si="0">SUM(B3:N3)</f>
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="P3" s="4">
-        <f t="shared" ref="P3:P34" si="1">O3/$O$34</f>
-        <v>0.79166666666666663</v>
+        <f t="shared" ref="O3:P34" si="1">O3/$O$34</f>
+        <v>0.8214285714285714</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -682,7 +694,7 @@
       </c>
       <c r="P4" s="4">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -695,13 +707,25 @@
       <c r="C5">
         <v>20</v>
       </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -723,13 +747,19 @@
       <c r="G6">
         <v>20</v>
       </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
       <c r="O6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="P6" s="4">
         <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -745,13 +775,22 @@
       <c r="D7">
         <v>20</v>
       </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -779,7 +818,7 @@
       </c>
       <c r="P8" s="4">
         <f t="shared" si="1"/>
-        <v>0.6333333333333333</v>
+        <v>0.54285714285714282</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -795,13 +834,22 @@
       <c r="D9">
         <v>25</v>
       </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
       <c r="O9">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="P9" s="4">
         <f t="shared" si="1"/>
-        <v>0.54166666666666663</v>
+        <v>0.8928571428571429</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -823,7 +871,7 @@
       </c>
       <c r="P10" s="4">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -845,26 +893,35 @@
       <c r="G11">
         <v>20</v>
       </c>
+      <c r="H11">
+        <v>20</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
       <c r="O11">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="P11" s="4">
         <f t="shared" si="1"/>
-        <v>0.875</v>
+        <v>1.0357142857142858</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
       <c r="O12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -877,13 +934,16 @@
       <c r="F13">
         <v>20</v>
       </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
       <c r="O13">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="P13" s="4">
         <f t="shared" si="1"/>
-        <v>0.375</v>
+        <v>0.4642857142857143</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -896,19 +956,28 @@
       <c r="C14">
         <v>20</v>
       </c>
+      <c r="D14">
+        <v>25</v>
+      </c>
       <c r="F14">
         <v>20</v>
       </c>
       <c r="G14">
         <v>20</v>
       </c>
+      <c r="H14">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
       <c r="O14">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="P14" s="4">
         <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
+        <v>1.0357142857142858</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -921,13 +990,22 @@
       <c r="C15">
         <v>15</v>
       </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>20</v>
+      </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
       <c r="O15">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="P15" s="4">
         <f t="shared" si="1"/>
-        <v>0.29166666666666669</v>
+        <v>0.6785714285714286</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -943,7 +1021,7 @@
       </c>
       <c r="P16" s="4">
         <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1003,18 +1081,30 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>15</v>
       </c>
+      <c r="D21">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
       <c r="O21">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P21" s="4">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1046,7 +1136,7 @@
       </c>
       <c r="P23" s="4">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1059,52 +1149,82 @@
       <c r="C24">
         <v>15</v>
       </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>18</v>
+      </c>
       <c r="O24">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="P24" s="4">
         <f t="shared" si="1"/>
-        <v>0.20833333333333334</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
       <c r="O25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P25" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
       <c r="O26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="P26" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="B27">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
       <c r="O27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="P27" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1150,13 +1270,16 @@
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="B31">
+        <v>20</v>
+      </c>
       <c r="O31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P31" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1172,7 +1295,7 @@
       </c>
       <c r="P32" s="4">
         <f t="shared" si="1"/>
-        <v>8.3333333333333329E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1188,7 +1311,23 @@
       <c r="D33">
         <v>20</v>
       </c>
-      <c r="P33" s="4"/>
+      <c r="G33">
+        <v>20</v>
+      </c>
+      <c r="H33">
+        <v>20</v>
+      </c>
+      <c r="I33">
+        <v>20</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="P33" s="4">
+        <f t="shared" si="1"/>
+        <v>0.8571428571428571</v>
+      </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
@@ -1216,7 +1355,7 @@
         <v>20</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1232,7 +1371,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="P34" s="4">
         <f t="shared" si="1"/>

--- a/Grades.xlsx
+++ b/Grades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncc\Fall-2018---CIS7---Discrete-Structures\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Anzo, Alan F.</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>Ramirez, Brandon A</t>
+  </si>
+  <si>
+    <t>Please See Me</t>
+  </si>
+  <si>
+    <t>********</t>
   </si>
 </sst>
 </file>
@@ -193,7 +199,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +215,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCBCBA8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -253,6 +265,11 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,9 +596,10 @@
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>30</v>
       </c>
@@ -624,30 +642,48 @@
       <c r="P1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>20</v>
-      </c>
-      <c r="I2">
-        <v>20</v>
-      </c>
-      <c r="O2">
+      <c r="Q1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6">
+        <v>20</v>
+      </c>
+      <c r="C2" s="6">
+        <v>20</v>
+      </c>
+      <c r="D2" s="6">
+        <v>20</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>20</v>
+      </c>
+      <c r="G2" s="6">
+        <v>20</v>
+      </c>
+      <c r="I2" s="6">
+        <v>20</v>
+      </c>
+      <c r="O2" s="6">
         <f>SUM(B2:N2)</f>
-        <v>60</v>
-      </c>
-      <c r="P2" s="4">
+        <v>120</v>
+      </c>
+      <c r="P2" s="7">
         <f>O2/$O$34</f>
-        <v>0.42857142857142855</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -658,27 +694,33 @@
         <v>15</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
         <v>20</v>
       </c>
       <c r="G3">
         <v>20</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
       </c>
       <c r="I3">
         <v>20</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O34" si="0">SUM(B3:N3)</f>
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="P3" s="4">
-        <f t="shared" ref="O3:P34" si="1">O3/$O$34</f>
-        <v>0.8214285714285714</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="P3:P34" si="1">O3/$O$34</f>
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -688,6 +730,9 @@
       <c r="C4">
         <v>20</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
       <c r="O4">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -697,7 +742,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -710,6 +755,9 @@
       <c r="D5">
         <v>20</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
       <c r="F5">
         <v>20</v>
       </c>
@@ -728,7 +776,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -741,6 +789,9 @@
       <c r="D6">
         <v>20</v>
       </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
       <c r="F6">
         <v>20</v>
       </c>
@@ -762,7 +813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -775,6 +826,9 @@
       <c r="D7">
         <v>20</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
       <c r="F7">
         <v>20</v>
       </c>
@@ -793,7 +847,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -806,6 +860,9 @@
       <c r="D8">
         <v>20</v>
       </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
       <c r="F8">
         <v>16</v>
       </c>
@@ -821,7 +878,7 @@
         <v>0.54285714285714282</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -834,25 +891,31 @@
       <c r="D9">
         <v>25</v>
       </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
       <c r="F9">
         <v>20</v>
       </c>
       <c r="G9">
         <v>20</v>
       </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
       <c r="I9">
         <v>20</v>
       </c>
       <c r="O9">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="P9" s="4">
         <f t="shared" si="1"/>
-        <v>0.8928571428571429</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1.0357142857142858</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -862,6 +925,9 @@
       <c r="D10">
         <v>20</v>
       </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
       <c r="G10">
         <v>20</v>
       </c>
@@ -874,7 +940,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -887,6 +953,9 @@
       <c r="D11">
         <v>25</v>
       </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
       <c r="F11">
         <v>20</v>
       </c>
@@ -908,10 +977,13 @@
         <v>1.0357142857142858</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
       <c r="I12">
         <v>20</v>
       </c>
@@ -924,29 +996,35 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D13">
         <v>25</v>
       </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
       <c r="F13">
         <v>20</v>
       </c>
+      <c r="G13">
+        <v>20</v>
+      </c>
       <c r="H13">
         <v>20</v>
       </c>
       <c r="O13">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="P13" s="4">
         <f t="shared" si="1"/>
-        <v>0.4642857142857143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.6071428571428571</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -959,6 +1037,9 @@
       <c r="D14">
         <v>25</v>
       </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
       <c r="F14">
         <v>20</v>
       </c>
@@ -980,7 +1061,7 @@
         <v>1.0357142857142858</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -990,6 +1071,12 @@
       <c r="C15">
         <v>15</v>
       </c>
+      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
       <c r="F15">
         <v>20</v>
       </c>
@@ -1001,20 +1088,23 @@
       </c>
       <c r="O15">
         <f t="shared" si="0"/>
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="P15" s="4">
         <f t="shared" si="1"/>
-        <v>0.6785714285714286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.8214285714285714</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D16">
         <v>20</v>
       </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
       <c r="O16">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1024,23 +1114,47 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:17" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="6">
+        <v>5</v>
+      </c>
+      <c r="D17" s="6">
+        <v>20</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <v>20</v>
+      </c>
+      <c r="G17" s="6">
+        <v>20</v>
+      </c>
+      <c r="H17" s="6">
+        <v>20</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="P17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.6071428571428571</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
       <c r="O18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1050,10 +1164,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
       <c r="O19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1063,10 +1180,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
       <c r="O20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1076,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -1089,28 +1209,37 @@
       <c r="D21">
         <v>25</v>
       </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
       <c r="F21">
         <v>20</v>
       </c>
       <c r="G21">
         <v>20</v>
       </c>
+      <c r="H21">
+        <v>20</v>
+      </c>
       <c r="I21">
         <v>20</v>
       </c>
       <c r="O21">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="P21" s="4">
         <f t="shared" si="1"/>
-        <v>0.8571428571428571</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
       <c r="O22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1120,7 +1249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1130,6 +1259,9 @@
       <c r="C23">
         <v>20</v>
       </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
       <c r="O23">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1139,32 +1271,41 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D24">
         <v>20</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
         <v>18</v>
       </c>
+      <c r="G24">
+        <v>20</v>
+      </c>
+      <c r="H24">
+        <v>20</v>
+      </c>
       <c r="O24">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="P24" s="4">
         <f t="shared" si="1"/>
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.84285714285714286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1174,16 +1315,34 @@
       <c r="C25">
         <v>20</v>
       </c>
+      <c r="D25">
+        <v>20</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>20</v>
+      </c>
+      <c r="H25">
+        <v>20</v>
+      </c>
+      <c r="I25">
+        <v>20</v>
+      </c>
       <c r="O25">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="P25" s="4">
         <f t="shared" si="1"/>
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -1196,6 +1355,9 @@
       <c r="D26">
         <v>20</v>
       </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
       <c r="O26">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -1205,7 +1367,7 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1218,6 +1380,9 @@
       <c r="D27">
         <v>25</v>
       </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
       <c r="O27">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -1227,10 +1392,13 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
       <c r="O28">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1240,10 +1408,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
       <c r="O29">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1253,41 +1424,80 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
+      <c r="G30">
+        <v>20</v>
+      </c>
+      <c r="H30">
+        <v>20</v>
+      </c>
+      <c r="I30">
+        <v>20</v>
+      </c>
       <c r="O30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="P30" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.9642857142857143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B31">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
         <v>20</v>
       </c>
       <c r="O31">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="P31" s="4">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.48571428571428571</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C32">
         <v>10</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
       </c>
       <c r="O32">
         <f t="shared" si="0"/>
@@ -1310,6 +1520,9 @@
       </c>
       <c r="D33">
         <v>20</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
       </c>
       <c r="G33">
         <v>20</v>

--- a/Grades.xlsx
+++ b/Grades.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>Anzo, Alan F.</t>
   </si>
@@ -588,7 +588,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,9 +650,6 @@
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6">
-        <v>20</v>
-      </c>
       <c r="C2" s="6">
         <v>20</v>
       </c>
@@ -673,11 +670,11 @@
       </c>
       <c r="O2" s="6">
         <f>SUM(B2:N2)</f>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="P2" s="7">
         <f>O2/$O$34</f>
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>48</v>
@@ -730,16 +727,31 @@
       <c r="C4">
         <v>20</v>
       </c>
+      <c r="D4">
+        <v>22.5</v>
+      </c>
       <c r="E4">
         <v>0</v>
       </c>
+      <c r="F4">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
       <c r="O4">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>139.1</v>
       </c>
       <c r="P4" s="4">
         <f t="shared" si="1"/>
-        <v>0.2857142857142857</v>
+        <v>0.99357142857142855</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -838,13 +850,16 @@
       <c r="H7">
         <v>20</v>
       </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
       <c r="O7">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="P7" s="4">
         <f t="shared" si="1"/>
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -928,16 +943,19 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="G10">
-        <v>20</v>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
       </c>
       <c r="O10">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="P10" s="4">
         <f t="shared" si="1"/>
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1000,6 +1018,12 @@
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
       <c r="D13">
         <v>25</v>
       </c>
@@ -1015,13 +1039,16 @@
       <c r="H13">
         <v>20</v>
       </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
       <c r="O13">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="P13" s="4">
         <f t="shared" si="1"/>
-        <v>0.6071428571428571</v>
+        <v>0.93571428571428572</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1083,35 +1110,56 @@
       <c r="G15">
         <v>20</v>
       </c>
+      <c r="H15">
+        <v>15</v>
+      </c>
       <c r="I15">
         <v>20</v>
       </c>
       <c r="O15">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="P15" s="4">
         <f t="shared" si="1"/>
-        <v>0.8214285714285714</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
       <c r="D16">
         <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>20</v>
+      </c>
+      <c r="I16">
+        <v>20</v>
+      </c>
       <c r="O16">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="P16" s="4">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>0.82857142857142863</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1136,13 +1184,16 @@
       <c r="H17" s="6">
         <v>20</v>
       </c>
+      <c r="I17" s="6">
+        <v>20</v>
+      </c>
       <c r="O17" s="6">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="P17" s="7">
         <f t="shared" si="1"/>
-        <v>0.6071428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="Q17" s="6" t="s">
         <v>48</v>
@@ -1168,32 +1219,74 @@
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>25</v>
+      </c>
       <c r="E19">
         <v>0</v>
       </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19">
+        <v>20</v>
+      </c>
+      <c r="I19">
+        <v>20</v>
+      </c>
       <c r="O19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="P19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+        <v>1.0357142857142858</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C20" s="6">
+        <v>15</v>
+      </c>
+      <c r="D20" s="6">
+        <v>20</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>20</v>
+      </c>
+      <c r="G20" s="6">
+        <v>20</v>
+      </c>
+      <c r="H20" s="6">
+        <v>20</v>
+      </c>
+      <c r="I20" s="6">
+        <v>20</v>
+      </c>
+      <c r="O20" s="6">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="P20" s="7">
+        <f t="shared" si="1"/>
+        <v>0.8214285714285714</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1237,16 +1330,37 @@
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>25</v>
+      </c>
       <c r="E22">
         <v>0</v>
       </c>
+      <c r="F22">
+        <v>15</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
       <c r="O22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="P22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.8214285714285714</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1396,16 +1510,25 @@
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28">
+        <v>20</v>
+      </c>
       <c r="E28">
         <v>0</v>
       </c>
+      <c r="G28">
+        <v>20</v>
+      </c>
       <c r="O28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="P28" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1480,13 +1603,22 @@
       <c r="F31">
         <v>20</v>
       </c>
+      <c r="G31">
+        <v>20</v>
+      </c>
+      <c r="H31">
+        <v>20</v>
+      </c>
+      <c r="I31">
+        <v>20</v>
+      </c>
       <c r="O31">
         <f t="shared" si="0"/>
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="P31" s="4">
         <f t="shared" si="1"/>
-        <v>0.48571428571428571</v>
+        <v>0.91428571428571426</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1496,16 +1628,22 @@
       <c r="C32">
         <v>10</v>
       </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
       <c r="E32">
         <v>0</v>
       </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
       <c r="O32">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="P32" s="4">
         <f t="shared" si="1"/>
-        <v>7.1428571428571425E-2</v>
+        <v>0.21428571428571427</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Grades.xlsx
+++ b/Grades.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Anzo, Alan F.</t>
   </si>
@@ -143,18 +143,6 @@
     <t>Assignment 8</t>
   </si>
   <si>
-    <t>Assignment 9</t>
-  </si>
-  <si>
-    <t>Assignment 10</t>
-  </si>
-  <si>
-    <t>Assignment 11</t>
-  </si>
-  <si>
-    <t>Assignment 12</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -171,6 +159,9 @@
   </si>
   <si>
     <t>********</t>
+  </si>
+  <si>
+    <t>Extra Credit</t>
   </si>
 </sst>
 </file>
@@ -199,7 +190,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,7 +211,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,7 +250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -270,6 +267,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,7 +590,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,31 +627,25 @@
         <v>38</v>
       </c>
       <c r="J1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>40</v>
       </c>
-      <c r="L1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>43</v>
-      </c>
-      <c r="P1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="6">
+        <v>20</v>
+      </c>
       <c r="C2" s="6">
         <v>20</v>
       </c>
@@ -663,6 +659,9 @@
         <v>20</v>
       </c>
       <c r="G2" s="6">
+        <v>20</v>
+      </c>
+      <c r="H2" s="6">
         <v>20</v>
       </c>
       <c r="I2" s="6">
@@ -670,14 +669,14 @@
       </c>
       <c r="O2" s="6">
         <f>SUM(B2:N2)</f>
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="P2" s="7">
         <f>O2/$O$34</f>
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -779,13 +778,16 @@
       <c r="H5">
         <v>20</v>
       </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
       <c r="O5">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="1"/>
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -999,19 +1001,37 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>12.5</v>
+      </c>
       <c r="E12">
         <v>0</v>
       </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
       <c r="I12">
         <v>20</v>
       </c>
       <c r="O12">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>82.5</v>
       </c>
       <c r="P12" s="4">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>0.5892857142857143</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1099,7 +1119,7 @@
         <v>15</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1118,11 +1138,11 @@
       </c>
       <c r="O15">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="P15" s="4">
         <f t="shared" si="1"/>
-        <v>0.9285714285714286</v>
+        <v>0.9642857142857143</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1166,6 +1186,9 @@
       <c r="A17" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="B17" s="6">
+        <v>20</v>
+      </c>
       <c r="C17" s="6">
         <v>5</v>
       </c>
@@ -1189,28 +1212,28 @@
       </c>
       <c r="O17" s="6">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="P17" s="7">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="4">
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="O18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1256,6 +1279,9 @@
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="B20" s="6">
+        <v>20</v>
+      </c>
       <c r="C20" s="6">
         <v>15</v>
       </c>
@@ -1279,14 +1305,14 @@
       </c>
       <c r="O20" s="6">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7">
         <f t="shared" si="1"/>
-        <v>0.8214285714285714</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1373,16 +1399,25 @@
       <c r="C23">
         <v>20</v>
       </c>
+      <c r="D23">
+        <v>25</v>
+      </c>
       <c r="E23">
         <v>0</v>
       </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>20</v>
+      </c>
       <c r="O23">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="P23" s="4">
         <f t="shared" si="1"/>
-        <v>0.2857142857142857</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1472,13 +1507,25 @@
       <c r="E26">
         <v>0</v>
       </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <v>20</v>
+      </c>
+      <c r="H26">
+        <v>20</v>
+      </c>
+      <c r="I26">
+        <v>20</v>
+      </c>
       <c r="O26">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="P26" s="4">
         <f t="shared" si="1"/>
-        <v>0.42857142857142855</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1497,13 +1544,16 @@
       <c r="E27">
         <v>0</v>
       </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
       <c r="O27">
         <f t="shared" si="0"/>
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="P27" s="4">
         <f t="shared" si="1"/>
-        <v>0.45</v>
+        <v>0.52142857142857146</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1516,33 +1566,39 @@
       <c r="C28">
         <v>20</v>
       </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="G28">
         <v>20</v>
       </c>
+      <c r="I28">
+        <v>10</v>
+      </c>
       <c r="O28">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="P28" s="4">
         <f t="shared" si="1"/>
-        <v>0.42857142857142855</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="4">
+      <c r="E29" s="9">
+        <v>0</v>
+      </c>
+      <c r="O29" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1595,7 +1651,7 @@
         <v>15</v>
       </c>
       <c r="D31">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1614,19 +1670,19 @@
       </c>
       <c r="O31">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P31" s="4">
         <f t="shared" si="1"/>
-        <v>0.91428571428571426</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D32">
         <v>10</v>
@@ -1634,21 +1690,27 @@
       <c r="E32">
         <v>0</v>
       </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>20</v>
+      </c>
       <c r="I32">
         <v>10</v>
       </c>
       <c r="O32">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="P32" s="4">
         <f t="shared" si="1"/>
-        <v>0.21428571428571427</v>
+        <v>0.42857142857142855</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>20</v>
@@ -1657,11 +1719,14 @@
         <v>20</v>
       </c>
       <c r="D33">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
+      <c r="F33">
+        <v>20</v>
+      </c>
       <c r="G33">
         <v>20</v>
       </c>
@@ -1673,11 +1738,11 @@
       </c>
       <c r="O33">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="P33" s="4">
         <f t="shared" si="1"/>
-        <v>0.8571428571428571</v>
+        <v>1.0357142857142858</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -1709,15 +1774,6 @@
         <v>20</v>
       </c>
       <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
         <v>0</v>
       </c>
       <c r="O34">

--- a/Grades.xlsx
+++ b/Grades.xlsx
@@ -190,7 +190,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,6 +218,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -272,6 +278,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,7 +601,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,39 +690,39 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:17" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="12">
+        <v>20</v>
+      </c>
+      <c r="C3" s="12">
         <v>15</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="12">
         <v>25</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>20</v>
-      </c>
-      <c r="H3">
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>20</v>
+      </c>
+      <c r="G3" s="12">
+        <v>20</v>
+      </c>
+      <c r="H3" s="12">
         <v>15</v>
       </c>
-      <c r="I3">
-        <v>20</v>
-      </c>
-      <c r="O3">
+      <c r="I3" s="12">
+        <v>20</v>
+      </c>
+      <c r="O3" s="12">
         <f t="shared" ref="O3:O34" si="0">SUM(B3:N3)</f>
         <v>135</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="13">
         <f t="shared" ref="P3:P34" si="1">O3/$O$34</f>
         <v>0.9642857142857143</v>
       </c>
@@ -753,76 +764,76 @@
         <v>0.99357142857142855</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:17" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
-      <c r="G5">
-        <v>20</v>
-      </c>
-      <c r="H5">
-        <v>20</v>
-      </c>
-      <c r="I5">
-        <v>20</v>
-      </c>
-      <c r="O5">
+      <c r="B5" s="12">
+        <v>20</v>
+      </c>
+      <c r="C5" s="12">
+        <v>20</v>
+      </c>
+      <c r="D5" s="12">
+        <v>20</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12">
+        <v>20</v>
+      </c>
+      <c r="G5" s="12">
+        <v>20</v>
+      </c>
+      <c r="H5" s="12">
+        <v>20</v>
+      </c>
+      <c r="I5" s="12">
+        <v>20</v>
+      </c>
+      <c r="O5" s="12">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:17" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>20</v>
-      </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>20</v>
-      </c>
-      <c r="G6">
-        <v>20</v>
-      </c>
-      <c r="H6">
-        <v>20</v>
-      </c>
-      <c r="I6">
-        <v>20</v>
-      </c>
-      <c r="O6">
+      <c r="B6" s="12">
+        <v>20</v>
+      </c>
+      <c r="C6" s="12">
+        <v>20</v>
+      </c>
+      <c r="D6" s="12">
+        <v>20</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="12">
+        <v>20</v>
+      </c>
+      <c r="G6" s="12">
+        <v>20</v>
+      </c>
+      <c r="H6" s="12">
+        <v>20</v>
+      </c>
+      <c r="I6" s="12">
+        <v>20</v>
+      </c>
+      <c r="O6" s="12">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -864,70 +875,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:17" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="B8" s="12">
+        <v>10</v>
+      </c>
+      <c r="C8" s="12">
+        <v>10</v>
+      </c>
+      <c r="D8" s="12">
+        <v>20</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
         <v>16</v>
       </c>
-      <c r="G8">
-        <v>20</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-      <c r="P8" s="4">
-        <f t="shared" si="1"/>
-        <v>0.54285714285714282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="G8" s="12">
+        <v>20</v>
+      </c>
+      <c r="H8" s="12">
+        <v>10</v>
+      </c>
+      <c r="I8" s="12">
+        <v>10</v>
+      </c>
+      <c r="J8" s="12">
+        <v>30</v>
+      </c>
+      <c r="O8" s="12">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="P8" s="13">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9">
+      <c r="B9" s="12">
+        <v>20</v>
+      </c>
+      <c r="C9" s="12">
+        <v>20</v>
+      </c>
+      <c r="D9" s="12">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>20</v>
-      </c>
-      <c r="G9">
-        <v>20</v>
-      </c>
-      <c r="H9">
-        <v>20</v>
-      </c>
-      <c r="I9">
-        <v>20</v>
-      </c>
-      <c r="O9">
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>20</v>
+      </c>
+      <c r="G9" s="12">
+        <v>20</v>
+      </c>
+      <c r="H9" s="12">
+        <v>20</v>
+      </c>
+      <c r="I9" s="12">
+        <v>20</v>
+      </c>
+      <c r="O9" s="12">
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="13">
         <f t="shared" si="1"/>
         <v>1.0357142857142858</v>
       </c>
@@ -960,78 +980,81 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:17" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="D11">
+      <c r="B11" s="12">
+        <v>20</v>
+      </c>
+      <c r="C11" s="12">
+        <v>20</v>
+      </c>
+      <c r="D11" s="12">
         <v>25</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>20</v>
-      </c>
-      <c r="G11">
-        <v>20</v>
-      </c>
-      <c r="H11">
-        <v>20</v>
-      </c>
-      <c r="I11">
-        <v>20</v>
-      </c>
-      <c r="O11">
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>20</v>
+      </c>
+      <c r="G11" s="12">
+        <v>20</v>
+      </c>
+      <c r="H11" s="12">
+        <v>20</v>
+      </c>
+      <c r="I11" s="12">
+        <v>20</v>
+      </c>
+      <c r="O11" s="12">
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="13">
         <f t="shared" si="1"/>
         <v>1.0357142857142858</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12">
+    <row r="12" spans="1:17" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="12">
+        <v>10</v>
+      </c>
+      <c r="C12" s="12">
+        <v>10</v>
+      </c>
+      <c r="D12" s="12">
         <v>12.5</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>10</v>
-      </c>
-      <c r="H12">
-        <v>10</v>
-      </c>
-      <c r="I12">
-        <v>20</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="0"/>
-        <v>82.5</v>
-      </c>
-      <c r="P12" s="4">
-        <f t="shared" si="1"/>
-        <v>0.5892857142857143</v>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>10</v>
+      </c>
+      <c r="G12" s="12">
+        <v>10</v>
+      </c>
+      <c r="H12" s="12">
+        <v>10</v>
+      </c>
+      <c r="I12" s="12">
+        <v>20</v>
+      </c>
+      <c r="J12" s="12">
+        <v>30</v>
+      </c>
+      <c r="O12" s="12">
+        <f t="shared" si="0"/>
+        <v>112.5</v>
+      </c>
+      <c r="P12" s="13">
+        <f t="shared" si="1"/>
+        <v>0.8035714285714286</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1071,76 +1094,76 @@
         <v>0.93571428571428572</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:17" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>20</v>
-      </c>
-      <c r="D14">
+      <c r="B14" s="12">
+        <v>20</v>
+      </c>
+      <c r="C14" s="12">
+        <v>20</v>
+      </c>
+      <c r="D14" s="12">
         <v>25</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>20</v>
-      </c>
-      <c r="G14">
-        <v>20</v>
-      </c>
-      <c r="H14">
-        <v>20</v>
-      </c>
-      <c r="I14">
-        <v>20</v>
-      </c>
-      <c r="O14">
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <v>20</v>
+      </c>
+      <c r="G14" s="12">
+        <v>20</v>
+      </c>
+      <c r="H14" s="12">
+        <v>20</v>
+      </c>
+      <c r="I14" s="12">
+        <v>20</v>
+      </c>
+      <c r="O14" s="12">
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="13">
         <f t="shared" si="1"/>
         <v>1.0357142857142858</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:17" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>20</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="12">
+        <v>20</v>
+      </c>
+      <c r="C15" s="12">
         <v>15</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="12">
         <v>25</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>20</v>
-      </c>
-      <c r="G15">
-        <v>20</v>
-      </c>
-      <c r="H15">
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
+        <v>20</v>
+      </c>
+      <c r="G15" s="12">
+        <v>20</v>
+      </c>
+      <c r="H15" s="12">
         <v>15</v>
       </c>
-      <c r="I15">
-        <v>20</v>
-      </c>
-      <c r="O15">
+      <c r="I15" s="12">
+        <v>20</v>
+      </c>
+      <c r="O15" s="12">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="13">
         <f t="shared" si="1"/>
         <v>0.9642857142857143</v>
       </c>
@@ -1352,39 +1375,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>20</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
-      </c>
-      <c r="D22">
+    <row r="22" spans="1:17" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="12">
+        <v>20</v>
+      </c>
+      <c r="C22" s="12">
+        <v>10</v>
+      </c>
+      <c r="D22" s="12">
         <v>25</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
+      <c r="E22" s="12">
+        <v>0</v>
+      </c>
+      <c r="F22" s="12">
         <v>15</v>
       </c>
-      <c r="G22">
-        <v>20</v>
-      </c>
-      <c r="H22">
+      <c r="G22" s="12">
+        <v>20</v>
+      </c>
+      <c r="H22" s="12">
         <v>5</v>
       </c>
-      <c r="I22">
-        <v>20</v>
-      </c>
-      <c r="O22">
+      <c r="I22" s="12">
+        <v>20</v>
+      </c>
+      <c r="O22" s="12">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="13">
         <f t="shared" si="1"/>
         <v>0.8214285714285714</v>
       </c>
@@ -1411,6 +1434,9 @@
       <c r="G23">
         <v>20</v>
       </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
       <c r="O23">
         <f t="shared" si="0"/>
         <v>105</v>
@@ -1491,100 +1517,106 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:17" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>20</v>
-      </c>
-      <c r="C26">
-        <v>20</v>
-      </c>
-      <c r="D26">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>20</v>
-      </c>
-      <c r="G26">
-        <v>20</v>
-      </c>
-      <c r="H26">
-        <v>20</v>
-      </c>
-      <c r="I26">
-        <v>20</v>
-      </c>
-      <c r="O26">
+      <c r="B26" s="12">
+        <v>20</v>
+      </c>
+      <c r="C26" s="12">
+        <v>20</v>
+      </c>
+      <c r="D26" s="12">
+        <v>20</v>
+      </c>
+      <c r="E26" s="12">
+        <v>0</v>
+      </c>
+      <c r="F26" s="12">
+        <v>20</v>
+      </c>
+      <c r="G26" s="12">
+        <v>20</v>
+      </c>
+      <c r="H26" s="12">
+        <v>20</v>
+      </c>
+      <c r="I26" s="12">
+        <v>20</v>
+      </c>
+      <c r="O26" s="12">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="13">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:17" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="12">
         <v>18</v>
       </c>
-      <c r="C27">
-        <v>20</v>
-      </c>
-      <c r="D27">
+      <c r="C27" s="12">
+        <v>20</v>
+      </c>
+      <c r="D27" s="12">
         <v>25</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>10</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="P27" s="4">
-        <f t="shared" si="1"/>
-        <v>0.52142857142857146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="E27" s="12">
+        <v>0</v>
+      </c>
+      <c r="F27" s="12">
+        <v>10</v>
+      </c>
+      <c r="J27" s="12">
+        <v>30</v>
+      </c>
+      <c r="O27" s="12">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="P27" s="13">
+        <f t="shared" si="1"/>
+        <v>0.73571428571428577</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>20</v>
-      </c>
-      <c r="C28">
-        <v>20</v>
-      </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>20</v>
-      </c>
-      <c r="I28">
-        <v>10</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="P28" s="4">
-        <f t="shared" si="1"/>
-        <v>0.5714285714285714</v>
+      <c r="B28" s="12">
+        <v>20</v>
+      </c>
+      <c r="C28" s="12">
+        <v>20</v>
+      </c>
+      <c r="D28" s="12">
+        <v>10</v>
+      </c>
+      <c r="E28" s="12">
+        <v>0</v>
+      </c>
+      <c r="G28" s="12">
+        <v>20</v>
+      </c>
+      <c r="H28" s="12">
+        <v>18</v>
+      </c>
+      <c r="I28" s="12">
+        <v>10</v>
+      </c>
+      <c r="O28" s="12">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="P28" s="13">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1603,76 +1635,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:17" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>20</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="12">
+        <v>20</v>
+      </c>
+      <c r="C30" s="12">
         <v>15</v>
       </c>
-      <c r="D30">
-        <v>20</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>20</v>
-      </c>
-      <c r="G30">
-        <v>20</v>
-      </c>
-      <c r="H30">
-        <v>20</v>
-      </c>
-      <c r="I30">
-        <v>20</v>
-      </c>
-      <c r="O30">
+      <c r="D30" s="12">
+        <v>20</v>
+      </c>
+      <c r="E30" s="12">
+        <v>0</v>
+      </c>
+      <c r="F30" s="12">
+        <v>20</v>
+      </c>
+      <c r="G30" s="12">
+        <v>20</v>
+      </c>
+      <c r="H30" s="12">
+        <v>20</v>
+      </c>
+      <c r="I30" s="12">
+        <v>20</v>
+      </c>
+      <c r="O30" s="12">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="13">
         <f t="shared" si="1"/>
         <v>0.9642857142857143</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:17" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="12">
         <v>15</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="12">
         <v>15</v>
       </c>
-      <c r="D31">
-        <v>20</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>20</v>
-      </c>
-      <c r="G31">
-        <v>20</v>
-      </c>
-      <c r="H31">
-        <v>20</v>
-      </c>
-      <c r="I31">
-        <v>20</v>
-      </c>
-      <c r="O31">
+      <c r="D31" s="12">
+        <v>20</v>
+      </c>
+      <c r="E31" s="12">
+        <v>0</v>
+      </c>
+      <c r="F31" s="12">
+        <v>20</v>
+      </c>
+      <c r="G31" s="12">
+        <v>20</v>
+      </c>
+      <c r="H31" s="12">
+        <v>20</v>
+      </c>
+      <c r="I31" s="12">
+        <v>20</v>
+      </c>
+      <c r="O31" s="12">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="13">
         <f t="shared" si="1"/>
         <v>0.9285714285714286</v>
       </c>
@@ -1708,39 +1740,39 @@
         <v>0.42857142857142855</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:16" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B33">
-        <v>20</v>
-      </c>
-      <c r="C33">
-        <v>20</v>
-      </c>
-      <c r="D33">
+      <c r="B33" s="12">
+        <v>20</v>
+      </c>
+      <c r="C33" s="12">
+        <v>20</v>
+      </c>
+      <c r="D33" s="12">
         <v>25</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>20</v>
-      </c>
-      <c r="G33">
-        <v>20</v>
-      </c>
-      <c r="H33">
-        <v>20</v>
-      </c>
-      <c r="I33">
-        <v>20</v>
-      </c>
-      <c r="O33">
+      <c r="E33" s="12">
+        <v>0</v>
+      </c>
+      <c r="F33" s="12">
+        <v>20</v>
+      </c>
+      <c r="G33" s="12">
+        <v>20</v>
+      </c>
+      <c r="H33" s="12">
+        <v>20</v>
+      </c>
+      <c r="I33" s="12">
+        <v>20</v>
+      </c>
+      <c r="O33" s="12">
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P33" s="13">
         <f t="shared" si="1"/>
         <v>1.0357142857142858</v>
       </c>

--- a/Grades.xlsx
+++ b/Grades.xlsx
@@ -601,7 +601,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,13 +971,16 @@
       <c r="I10">
         <v>10</v>
       </c>
+      <c r="J10">
+        <v>20</v>
+      </c>
       <c r="O10">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="P10" s="4">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
